--- a/Code/Results/Cases/Case_2_135/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_135/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.80248000744997</v>
+        <v>18.56572392040826</v>
       </c>
       <c r="C2">
-        <v>12.70420792835213</v>
+        <v>9.241994103215211</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.622627691431726</v>
+        <v>11.12051325010195</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>37.06283216645017</v>
+        <v>38.30126954453143</v>
       </c>
       <c r="H2">
-        <v>11.30554472042121</v>
+        <v>16.30901378972903</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.328392710531675</v>
+        <v>9.927261588779871</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.70598308324568</v>
+        <v>17.98528927832327</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.1351828023811</v>
+        <v>18.07574737451615</v>
       </c>
       <c r="C3">
-        <v>12.00434768266885</v>
+        <v>8.935776507667962</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.639474832426874</v>
+        <v>11.14971989343208</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>35.40239065860503</v>
+        <v>38.09353024335096</v>
       </c>
       <c r="H3">
-        <v>11.14170694345576</v>
+        <v>16.34251432632526</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.068916214359076</v>
+        <v>9.906247075366476</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.97844442296218</v>
+        <v>18.06039553380951</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.05696514758521</v>
+        <v>17.77276432757274</v>
       </c>
       <c r="C4">
-        <v>11.55544411908993</v>
+        <v>8.740554058401969</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.653515307784584</v>
+        <v>11.16918971764735</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>34.40128008916601</v>
+        <v>37.98157145262777</v>
       </c>
       <c r="H4">
-        <v>11.05313929505232</v>
+        <v>16.36721762392421</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.90978825466743</v>
+        <v>9.895290913932671</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.14830917528493</v>
+        <v>18.1085649145385</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.60376378101276</v>
+        <v>17.64895931565053</v>
       </c>
       <c r="C5">
-        <v>11.367731070122</v>
+        <v>8.659255795206828</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.660135068155405</v>
+        <v>11.1775103298204</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>33.99836898797659</v>
+        <v>37.93989868804854</v>
       </c>
       <c r="H5">
-        <v>11.01996750790756</v>
+        <v>16.37831965039403</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.845066484087926</v>
+        <v>9.891318583116135</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.21823152751895</v>
+        <v>18.12871269312987</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.52767230871701</v>
+        <v>17.62838725541474</v>
       </c>
       <c r="C6">
-        <v>11.33627440379708</v>
+        <v>8.645653100591897</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.661287628340013</v>
+        <v>11.17891530638038</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>33.93178405423256</v>
+        <v>37.93321833150809</v>
       </c>
       <c r="H6">
-        <v>11.01463255313494</v>
+        <v>16.38022552897414</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.83432934563889</v>
+        <v>9.89068879505766</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.22988594240571</v>
+        <v>18.13208958050876</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.05090921089772</v>
+        <v>17.77109574340553</v>
       </c>
       <c r="C7">
-        <v>11.55293184027756</v>
+        <v>8.739464606068397</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.653600988068459</v>
+        <v>11.16930036733337</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>34.39582525366146</v>
+        <v>37.98099340661291</v>
       </c>
       <c r="H7">
-        <v>11.05268024754513</v>
+        <v>16.36736316402484</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.908914785654462</v>
+        <v>9.895235344555427</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.14924926479124</v>
+        <v>18.10883453319285</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.23883000932158</v>
+        <v>18.39734035162626</v>
       </c>
       <c r="C8">
-        <v>12.466897366678</v>
+        <v>9.137943897879056</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.627650207667993</v>
+        <v>11.13026476516313</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>36.48672783135073</v>
+        <v>38.22642501567222</v>
       </c>
       <c r="H8">
-        <v>11.24649565578476</v>
+        <v>16.31970432262192</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.238928558868316</v>
+        <v>9.919613547251489</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.79942770136025</v>
+        <v>18.01076079686172</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.1030942524531</v>
+        <v>19.60016898111747</v>
       </c>
       <c r="C9">
-        <v>14.10618527448245</v>
+        <v>9.85957942431963</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.607560476334771</v>
+        <v>11.06590784347489</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>40.71780551752475</v>
+        <v>38.82973891009819</v>
       </c>
       <c r="H9">
-        <v>11.72641363760166</v>
+        <v>16.25922426648451</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.884719139321043</v>
+        <v>9.9827242336016</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.13117486117612</v>
+        <v>17.83464633468364</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.6919839115159</v>
+        <v>20.458182962383</v>
       </c>
       <c r="C10">
-        <v>15.2177859706209</v>
+        <v>10.35027608566956</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.613713395212506</v>
+        <v>11.02605430253415</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>43.8917924954045</v>
+        <v>39.34456671122905</v>
       </c>
       <c r="H10">
-        <v>12.14562782717772</v>
+        <v>16.2351212092087</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.355229952847507</v>
+        <v>10.03820710221737</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.64695508117621</v>
+        <v>17.71501021304756</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.81785537395006</v>
+        <v>20.84099248934523</v>
       </c>
       <c r="C11">
-        <v>15.70382558384953</v>
+        <v>10.56440977575527</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.621551988923255</v>
+        <v>11.00953653861622</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>45.34885552886851</v>
+        <v>39.59356933426854</v>
       </c>
       <c r="H11">
-        <v>12.35200265503725</v>
+        <v>16.22861273278234</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.567989294474753</v>
+        <v>10.06537298040699</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.42712214422872</v>
+        <v>17.66267600172913</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.23696662947329</v>
+        <v>20.98472848588787</v>
       </c>
       <c r="C12">
-        <v>15.88511569166888</v>
+        <v>10.64415339324877</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.625289077779367</v>
+        <v>11.00351343686266</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>45.90255689876162</v>
+        <v>39.68991697045016</v>
       </c>
       <c r="H12">
-        <v>12.43250522918555</v>
+        <v>16.22679173558172</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.648351900978126</v>
+        <v>10.07593179755634</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.34384642677582</v>
+        <v>17.64315675566669</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.14702139480367</v>
+        <v>20.95382907606689</v>
       </c>
       <c r="C13">
-        <v>15.84619333224555</v>
+        <v>10.62703950629104</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.624449305859173</v>
+        <v>11.00480030886409</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>45.78321899761595</v>
+        <v>39.66907657591025</v>
       </c>
       <c r="H13">
-        <v>12.41506127006696</v>
+        <v>16.22715525357042</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.631053677049708</v>
+        <v>10.0736457727356</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.36178425741591</v>
+        <v>17.64734732335703</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.8524794986098</v>
+        <v>20.8528430941629</v>
       </c>
       <c r="C14">
-        <v>15.71879538486509</v>
+        <v>10.5709974678024</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.621843771709186</v>
+        <v>11.00903636823243</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>45.3943692507428</v>
+        <v>39.60145515052646</v>
       </c>
       <c r="H14">
-        <v>12.35857790556824</v>
+        <v>16.22845000423209</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.574604951692363</v>
+        <v>10.06623624744886</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.42027216663854</v>
+        <v>17.66106416776897</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.67112923153748</v>
+        <v>20.79082251713158</v>
       </c>
       <c r="C15">
-        <v>15.6404028024104</v>
+        <v>10.53649402114624</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.62034927970233</v>
+        <v>11.01166126746512</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>45.15644396392535</v>
+        <v>39.56030052879782</v>
       </c>
       <c r="H15">
-        <v>12.32428967274917</v>
+        <v>16.22932697255944</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.540001413349509</v>
+        <v>10.06173291662327</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.45609088907209</v>
+        <v>17.66950496247945</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.61738103134263</v>
+        <v>20.43300162916443</v>
       </c>
       <c r="C16">
-        <v>15.1856318535354</v>
+        <v>10.33609577928721</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.613306243502056</v>
+        <v>11.0271662145511</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>43.79683681456157</v>
+        <v>39.32858558785541</v>
       </c>
       <c r="H16">
-        <v>12.13246448086593</v>
+        <v>16.23563647321939</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.341297826567343</v>
+        <v>10.036470065881</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.66132281340081</v>
+        <v>17.71847225665462</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.95781652364044</v>
+        <v>20.21145962119371</v>
       </c>
       <c r="C17">
-        <v>14.90165368040644</v>
+        <v>10.21080236535321</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.610306882472362</v>
+        <v>11.03709085074551</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>42.9661382196519</v>
+        <v>39.19017758627812</v>
       </c>
       <c r="H17">
-        <v>12.01886910995512</v>
+        <v>16.24065060639319</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.219053288069473</v>
+        <v>10.02146185875633</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.78727565733225</v>
+        <v>17.74904583469467</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.57355969837044</v>
+        <v>20.08333602553486</v>
       </c>
       <c r="C18">
-        <v>14.73646425528634</v>
+        <v>10.13788353917894</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.609053291034041</v>
+        <v>11.04295094815288</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>42.48957512609152</v>
+        <v>39.11196722673409</v>
       </c>
       <c r="H18">
-        <v>11.95500107984292</v>
+        <v>16.24395388904696</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.14862160278448</v>
+        <v>10.0130112041696</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.85976804546364</v>
+        <v>17.76682766808658</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.44261023718452</v>
+        <v>20.03984027906397</v>
       </c>
       <c r="C19">
-        <v>14.6802141921987</v>
+        <v>10.11304913474194</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.608708536791664</v>
+        <v>11.04496113134473</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>42.32843130496656</v>
+        <v>39.08572883335586</v>
       </c>
       <c r="H19">
-        <v>11.93362582254711</v>
+        <v>16.24514424384398</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.12475490334598</v>
+        <v>10.01018131591641</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.88432358685086</v>
+        <v>17.77288213290451</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.02853314566654</v>
+        <v>20.23511653816779</v>
       </c>
       <c r="C20">
-        <v>14.93207500470584</v>
+        <v>10.2242286706826</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.610577053741124</v>
+        <v>11.03601865467198</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.24955283636157</v>
       </c>
       <c r="G20">
-        <v>43.05443996161597</v>
+        <v>39.20476715231966</v>
       </c>
       <c r="H20">
-        <v>12.03080879032411</v>
+        <v>16.24007342726227</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.232079024984545</v>
+        <v>10.02304074341476</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.77386347496989</v>
+        <v>17.74577087845965</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.93918798832635</v>
+        <v>20.88253949337135</v>
       </c>
       <c r="C21">
-        <v>15.7562896530956</v>
+        <v>10.5874951280806</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.622587850850248</v>
+        <v>11.00778584316116</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>45.50853016407329</v>
+        <v>39.62126202006974</v>
       </c>
       <c r="H21">
-        <v>12.3751037622108</v>
+        <v>16.22805221616497</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.591190969952613</v>
+        <v>10.06840527539612</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.40309444992127</v>
+        <v>17.65702710880583</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.14587826984937</v>
+        <v>21.29846465108217</v>
       </c>
       <c r="C22">
-        <v>16.27890025944418</v>
+        <v>10.81706187846464</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.634941122364298</v>
+        <v>10.99068529178872</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>47.12385310831932</v>
+        <v>39.90541032640508</v>
       </c>
       <c r="H22">
-        <v>12.61388591746147</v>
+        <v>16.22394822180894</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.82469758172723</v>
+        <v>10.09963450017115</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.160551299691</v>
+        <v>17.60076747695755</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.50561187084654</v>
+        <v>21.0771817781087</v>
       </c>
       <c r="C23">
-        <v>16.00141806116708</v>
+        <v>10.69526711406234</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.627920587339192</v>
+        <v>10.99968852837591</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154475857</v>
       </c>
       <c r="G23">
-        <v>46.26063280389911</v>
+        <v>39.75268762092865</v>
       </c>
       <c r="H23">
-        <v>12.48514937558549</v>
+        <v>16.22579440358724</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.700183479839191</v>
+        <v>10.08282407994629</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.29005512652209</v>
+        <v>17.63063572142854</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.99657795174763</v>
+        <v>20.22442358994676</v>
       </c>
       <c r="C24">
-        <v>14.9183275292532</v>
+        <v>10.21816139482146</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.610453446233936</v>
+        <v>11.03650291392838</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>43.01451557946727</v>
+        <v>39.19816696077694</v>
       </c>
       <c r="H24">
-        <v>12.02540638464522</v>
+        <v>16.24033306004221</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.226190559997711</v>
+        <v>10.02232637555863</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.77992686521128</v>
+        <v>17.74725084846888</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.1024064324194</v>
+        <v>19.27858516687954</v>
       </c>
       <c r="C25">
-        <v>13.67911464813995</v>
+        <v>9.671096408452275</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.60948405079857</v>
+        <v>11.08201318036395</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295691</v>
       </c>
       <c r="G25">
-        <v>39.560991078838</v>
+        <v>38.65372507667592</v>
       </c>
       <c r="H25">
-        <v>11.58528788548264</v>
+        <v>16.27203038686702</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.710524180040847</v>
+        <v>9.96403317525937</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.31045322142324</v>
+        <v>17.88056782122947</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_135/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_135/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.56572392040826</v>
+        <v>23.80248000744993</v>
       </c>
       <c r="C2">
-        <v>9.241994103215211</v>
+        <v>12.7042079283522</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.12051325010195</v>
+        <v>6.622627691431885</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>38.30126954453143</v>
+        <v>37.06283216645021</v>
       </c>
       <c r="H2">
-        <v>16.30901378972903</v>
+        <v>11.3055447204212</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.927261588779871</v>
+        <v>7.32839271053167</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.98528927832327</v>
+        <v>11.70598308324575</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.07574737451615</v>
+        <v>22.13518280238117</v>
       </c>
       <c r="C3">
-        <v>8.935776507667962</v>
+        <v>12.00434768266889</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.14971989343208</v>
+        <v>6.639474832426879</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>38.09353024335096</v>
+        <v>35.40239065860494</v>
       </c>
       <c r="H3">
-        <v>16.34251432632526</v>
+        <v>11.14170694345573</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.906247075366476</v>
+        <v>7.068916214359071</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.06039553380951</v>
+        <v>11.97844442296208</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.77276432757274</v>
+        <v>21.05696514758519</v>
       </c>
       <c r="C4">
-        <v>8.740554058401969</v>
+        <v>11.55544411909001</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.16918971764735</v>
+        <v>6.653515307784767</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>37.98157145262777</v>
+        <v>34.40128008916601</v>
       </c>
       <c r="H4">
-        <v>16.36721762392421</v>
+        <v>11.05313929505232</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.895290913932671</v>
+        <v>6.909788254667465</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.1085649145385</v>
+        <v>12.14830917528493</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.64895931565053</v>
+        <v>20.60376378101272</v>
       </c>
       <c r="C5">
-        <v>8.659255795206828</v>
+        <v>11.36773107012203</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.1775103298204</v>
+        <v>6.660135068155284</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>37.93989868804854</v>
+        <v>33.99836898797659</v>
       </c>
       <c r="H5">
-        <v>16.37831965039403</v>
+        <v>11.01996750790747</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.891318583116135</v>
+        <v>6.845066484087934</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.12871269312987</v>
+        <v>12.21823152751885</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.62838725541474</v>
+        <v>20.52767230871697</v>
       </c>
       <c r="C6">
-        <v>8.645653100591897</v>
+        <v>11.33627440379692</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.17891530638038</v>
+        <v>6.66128762833995</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>37.93321833150809</v>
+        <v>33.9317840542327</v>
       </c>
       <c r="H6">
-        <v>16.38022552897414</v>
+        <v>11.01463255313499</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.89068879505766</v>
+        <v>6.834329345638891</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.13208958050876</v>
+        <v>12.22988594240575</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.77109574340553</v>
+        <v>21.0509092108977</v>
       </c>
       <c r="C7">
-        <v>8.739464606068397</v>
+        <v>11.55293184027748</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.16930036733337</v>
+        <v>6.653600988068459</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>37.98099340661291</v>
+        <v>34.39582525366146</v>
       </c>
       <c r="H7">
-        <v>16.36736316402484</v>
+        <v>11.05268024754518</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.895235344555427</v>
+        <v>6.908914785654476</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.10883453319285</v>
+        <v>12.14924926479124</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.39734035162626</v>
+        <v>23.23883000932158</v>
       </c>
       <c r="C8">
-        <v>9.137943897879056</v>
+        <v>12.46689736667798</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.13026476516313</v>
+        <v>6.627650207668056</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>38.22642501567222</v>
+        <v>36.48672783135085</v>
       </c>
       <c r="H8">
-        <v>16.31970432262192</v>
+        <v>11.24649565578482</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.919613547251489</v>
+        <v>7.238928558868326</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.01076079686172</v>
+        <v>11.79942770136028</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.60016898111747</v>
+        <v>27.10309425245309</v>
       </c>
       <c r="C9">
-        <v>9.85957942431963</v>
+        <v>14.10618527448236</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.06590784347489</v>
+        <v>6.607560476334765</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>38.82973891009819</v>
+        <v>40.71780551752477</v>
       </c>
       <c r="H9">
-        <v>16.25922426648451</v>
+        <v>11.72641363760165</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.9827242336016</v>
+        <v>7.884719139321046</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.83464633468364</v>
+        <v>11.13117486117615</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.458182962383</v>
+        <v>29.69198391151588</v>
       </c>
       <c r="C10">
-        <v>10.35027608566956</v>
+        <v>15.21778597062083</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.02605430253415</v>
+        <v>6.613713395212454</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>39.34456671122905</v>
+        <v>43.8917924954044</v>
       </c>
       <c r="H10">
-        <v>16.2351212092087</v>
+        <v>12.14562782717774</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.03820710221737</v>
+        <v>8.355229952847491</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.71501021304756</v>
+        <v>10.64695508117625</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.84099248934523</v>
+        <v>30.81785537395009</v>
       </c>
       <c r="C11">
-        <v>10.56440977575527</v>
+        <v>15.70382558384954</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.00953653861622</v>
+        <v>6.621551988923111</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>39.59356933426854</v>
+        <v>45.34885552886843</v>
       </c>
       <c r="H11">
-        <v>16.22861273278234</v>
+        <v>12.35200265503723</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.06537298040699</v>
+        <v>8.567989294474767</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.66267600172913</v>
+        <v>10.42712214422872</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.98472848588787</v>
+        <v>31.23696662947325</v>
       </c>
       <c r="C12">
-        <v>10.64415339324877</v>
+        <v>15.88511569166872</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.00351343686266</v>
+        <v>6.625289077779254</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>39.68991697045016</v>
+        <v>45.90255689876157</v>
       </c>
       <c r="H12">
-        <v>16.22679173558172</v>
+        <v>12.43250522918565</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.07593179755634</v>
+        <v>8.64835190097812</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.64315675566669</v>
+        <v>10.34384642677586</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.95382907606689</v>
+        <v>31.14702139480364</v>
       </c>
       <c r="C13">
-        <v>10.62703950629104</v>
+        <v>15.84619333224555</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.00480030886409</v>
+        <v>6.624449305859118</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>39.66907657591025</v>
+        <v>45.78321899761582</v>
       </c>
       <c r="H13">
-        <v>16.22715525357042</v>
+        <v>12.41506127006701</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.0736457727356</v>
+        <v>8.631053677049696</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.64734732335703</v>
+        <v>10.36178425741594</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.8528430941629</v>
+        <v>30.85247949860958</v>
       </c>
       <c r="C14">
-        <v>10.5709974678024</v>
+        <v>15.71879538486518</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.00903636823243</v>
+        <v>6.621843771709224</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>39.60145515052646</v>
+        <v>45.39436925074283</v>
       </c>
       <c r="H14">
-        <v>16.22845000423209</v>
+        <v>12.35857790556835</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.06623624744886</v>
+        <v>8.574604951692349</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.66106416776897</v>
+        <v>10.42027216663864</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.79082251713158</v>
+        <v>30.67112923153758</v>
       </c>
       <c r="C15">
-        <v>10.53649402114624</v>
+        <v>15.64040280241041</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.01166126746512</v>
+        <v>6.620349279702278</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>39.56030052879782</v>
+        <v>45.15644396392529</v>
       </c>
       <c r="H15">
-        <v>16.22932697255944</v>
+        <v>12.32428967274909</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.06173291662327</v>
+        <v>8.540001413349467</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.66950496247945</v>
+        <v>10.45609088907192</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.43300162916443</v>
+        <v>29.6173810313426</v>
       </c>
       <c r="C16">
-        <v>10.33609577928721</v>
+        <v>15.18563185353549</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.0271662145511</v>
+        <v>6.613306243502046</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>39.32858558785541</v>
+        <v>43.79683681456159</v>
       </c>
       <c r="H16">
-        <v>16.23563647321939</v>
+        <v>12.13246448086593</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.036470065881</v>
+        <v>8.341297826567336</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.71847225665462</v>
+        <v>10.66132281340088</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.21145962119371</v>
+        <v>28.95781652364042</v>
       </c>
       <c r="C17">
-        <v>10.21080236535321</v>
+        <v>14.90165368040654</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.03709085074551</v>
+        <v>6.610306882472298</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>39.19017758627812</v>
+        <v>42.96613821965182</v>
       </c>
       <c r="H17">
-        <v>16.24065060639319</v>
+        <v>12.01886910995503</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.02146185875633</v>
+        <v>8.219053288069421</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.74904583469467</v>
+        <v>10.78727565733226</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.08333602553486</v>
+        <v>28.57355969837045</v>
       </c>
       <c r="C18">
-        <v>10.13788353917894</v>
+        <v>14.73646425528618</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.04295094815288</v>
+        <v>6.609053291033924</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>39.11196722673409</v>
+        <v>42.48957512609147</v>
       </c>
       <c r="H18">
-        <v>16.24395388904696</v>
+        <v>11.9550010798429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.0130112041696</v>
+        <v>8.148621602784457</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.76682766808658</v>
+        <v>10.85976804546364</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.03984027906397</v>
+        <v>28.44261023718451</v>
       </c>
       <c r="C19">
-        <v>10.11304913474194</v>
+        <v>14.68021419219889</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.04496113134473</v>
+        <v>6.608708536791667</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>39.08572883335586</v>
+        <v>42.32843130496651</v>
       </c>
       <c r="H19">
-        <v>16.24514424384398</v>
+        <v>11.93362582254709</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.01018131591641</v>
+        <v>8.124754903345977</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.77288213290451</v>
+        <v>10.88432358685076</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.23511653816779</v>
+        <v>29.02853314566648</v>
       </c>
       <c r="C20">
-        <v>10.2242286706826</v>
+        <v>14.93207500470584</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.03601865467198</v>
+        <v>6.61057705374107</v>
       </c>
       <c r="F20">
-        <v>20.24955283636157</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>39.20476715231966</v>
+        <v>43.05443996161601</v>
       </c>
       <c r="H20">
-        <v>16.24007342726227</v>
+        <v>12.03080879032413</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.02304074341476</v>
+        <v>8.232079024984497</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.74577087845965</v>
+        <v>10.77386347496998</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.88253949337135</v>
+        <v>30.93918798832639</v>
       </c>
       <c r="C21">
-        <v>10.5874951280806</v>
+        <v>15.7562896530955</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.00778584316116</v>
+        <v>6.622587850850299</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>39.62126202006974</v>
+        <v>45.50853016407322</v>
       </c>
       <c r="H21">
-        <v>16.22805221616497</v>
+        <v>12.37510376221073</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.06840527539612</v>
+        <v>8.59119096995261</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.65702710880583</v>
+        <v>10.40309444992128</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.29846465108217</v>
+        <v>32.14587826984933</v>
       </c>
       <c r="C22">
-        <v>10.81706187846464</v>
+        <v>16.27890025944431</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.99068529178872</v>
+        <v>6.634941122364257</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>39.90541032640508</v>
+        <v>47.12385310831923</v>
       </c>
       <c r="H22">
-        <v>16.22394822180894</v>
+        <v>12.61388591746145</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.09963450017115</v>
+        <v>8.824697581727207</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.60076747695755</v>
+        <v>10.16055129969097</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.0771817781087</v>
+        <v>31.50561187084667</v>
       </c>
       <c r="C23">
-        <v>10.69526711406234</v>
+        <v>16.00141806116703</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.99968852837591</v>
+        <v>6.627920587339201</v>
       </c>
       <c r="F23">
-        <v>21.82633154475857</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>39.75268762092865</v>
+        <v>46.26063280389931</v>
       </c>
       <c r="H23">
-        <v>16.22579440358724</v>
+        <v>12.48514937558546</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.08282407994629</v>
+        <v>8.700183479839172</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.63063572142854</v>
+        <v>10.29005512652199</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.22442358994676</v>
+        <v>28.99657795174767</v>
       </c>
       <c r="C24">
-        <v>10.21816139482146</v>
+        <v>14.91832752925312</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.03650291392838</v>
+        <v>6.610453446233977</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>39.19816696077694</v>
+        <v>43.01451557946717</v>
       </c>
       <c r="H24">
-        <v>16.24033306004221</v>
+        <v>12.02540638464516</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.02232637555863</v>
+        <v>8.226190559997706</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.74725084846888</v>
+        <v>10.77992686521125</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.27858516687954</v>
+        <v>26.10240643241941</v>
       </c>
       <c r="C25">
-        <v>9.671096408452275</v>
+        <v>13.67911464814001</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.08201318036395</v>
+        <v>6.609484050798581</v>
       </c>
       <c r="F25">
-        <v>18.34778573295691</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>38.65372507667592</v>
+        <v>39.56099107883813</v>
       </c>
       <c r="H25">
-        <v>16.27203038686702</v>
+        <v>11.58528788548269</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.96403317525937</v>
+        <v>7.71052418004078</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.88056782122947</v>
+        <v>11.31045322142331</v>
       </c>
       <c r="O25">
         <v>0</v>
